--- a/webapp/templet/alarm.xlsx
+++ b/webapp/templet/alarm.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koney\Desktop\周科迪\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -16,13 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>报修序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>处理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理者电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">报警序号 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">设备id  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,47 +43,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报修内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理者电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修理完成</t>
+    <t xml:space="preserve">报警时间 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出警时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">报警原因  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警解除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 取消报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">警情代码 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">是否接警和处理  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">防区号 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,14 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -428,33 +451,35 @@
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="23.375" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -468,8 +493,12 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -479,12 +508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -492,12 +521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
